--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AREPD_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AREPD_Lineal_Estacionario_ARMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.8880818125474965</v>
+        <v>0.8850285157294149</v>
       </c>
       <c r="D2">
-        <v>0.6131658508349107</v>
+        <v>0.5676575512212216</v>
       </c>
       <c r="E2">
-        <v>0.793990873211031</v>
+        <v>0.8028180260572804</v>
       </c>
       <c r="F2">
-        <v>0.6549940402626064</v>
+        <v>0.7007573122654946</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8880818125474965</v>
+        <v>0.8850285157294149</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.6663628859231907</v>
+        <v>0.5367985777601905</v>
       </c>
       <c r="E3">
-        <v>0.8958922003181247</v>
+        <v>0.8730822942318572</v>
       </c>
       <c r="F3">
-        <v>0.5650098456985311</v>
+        <v>0.5843581732626353</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6131658508349107</v>
+        <v>0.5676575512212216</v>
       </c>
       <c r="C4">
-        <v>0.6663628859231907</v>
+        <v>0.5367985777601905</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.7473800833417039</v>
+        <v>0.7469494247715489</v>
       </c>
       <c r="F4">
-        <v>0.2772529082364621</v>
+        <v>0.2460432966381658</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.793990873211031</v>
+        <v>0.8028180260572804</v>
       </c>
       <c r="C5">
-        <v>0.8958922003181247</v>
+        <v>0.8730822942318572</v>
       </c>
       <c r="D5">
-        <v>0.7473800833417039</v>
+        <v>0.7469494247715489</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5205064117863267</v>
+        <v>0.5816608298349348</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6549940402626064</v>
+        <v>0.7007573122654946</v>
       </c>
       <c r="C6">
-        <v>0.5650098456985311</v>
+        <v>0.5843581732626353</v>
       </c>
       <c r="D6">
-        <v>0.2772529082364621</v>
+        <v>0.2460432966381658</v>
       </c>
       <c r="E6">
-        <v>0.5205064117863267</v>
+        <v>0.5816608298349348</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1408067391061729</v>
+        <v>0.1472573930422132</v>
       </c>
       <c r="D2">
-        <v>0.5058910698004854</v>
+        <v>0.5853053630912167</v>
       </c>
       <c r="E2">
-        <v>0.2612774273589095</v>
+        <v>0.2544886735436777</v>
       </c>
       <c r="F2">
-        <v>-0.4471151247092325</v>
+        <v>-0.3922815972340207</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.1408067391061729</v>
+        <v>-0.1472573930422132</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.431412049924066</v>
+        <v>0.6332182017306933</v>
       </c>
       <c r="E3">
-        <v>0.1309217186647708</v>
+        <v>0.1626966659055614</v>
       </c>
       <c r="F3">
-        <v>-0.5758161973237658</v>
+        <v>-0.5599564743851075</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.5058910698004854</v>
+        <v>-0.5853053630912167</v>
       </c>
       <c r="C4">
-        <v>-0.431412049924066</v>
+        <v>-0.6332182017306933</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.3222814662312917</v>
+        <v>-0.3291030129428938</v>
       </c>
       <c r="F4">
-        <v>-1.08774908526171</v>
+        <v>-1.210727756284462</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.2612774273589095</v>
+        <v>-0.2544886735436777</v>
       </c>
       <c r="C5">
-        <v>-0.1309217186647708</v>
+        <v>-0.1626966659055614</v>
       </c>
       <c r="D5">
-        <v>0.3222814662312917</v>
+        <v>0.3291030129428938</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.6430391244855118</v>
+        <v>-0.5640247427440195</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4471151247092325</v>
+        <v>0.3922815972340207</v>
       </c>
       <c r="C6">
-        <v>0.5758161973237658</v>
+        <v>0.5599564743851075</v>
       </c>
       <c r="D6">
-        <v>1.08774908526171</v>
+        <v>1.210727756284462</v>
       </c>
       <c r="E6">
-        <v>0.6430391244855118</v>
+        <v>0.5640247427440195</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AREPD_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AREPD_Lineal_Estacionario_ARMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.8850285157294149</v>
+        <v>0.1808706650201084</v>
       </c>
       <c r="D2">
-        <v>0.5676575512212216</v>
+        <v>0.689104831998983</v>
       </c>
       <c r="E2">
-        <v>0.8028180260572804</v>
+        <v>0.9583086513169434</v>
       </c>
       <c r="F2">
-        <v>0.7007573122654946</v>
+        <v>0.672723236197815</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8850285157294149</v>
+        <v>0.1808706650201084</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.5367985777601905</v>
+        <v>0.2969866227606552</v>
       </c>
       <c r="E3">
-        <v>0.8730822942318572</v>
+        <v>0.5087260950646546</v>
       </c>
       <c r="F3">
-        <v>0.5843581732626353</v>
+        <v>0.2379209483981182</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5676575512212216</v>
+        <v>0.689104831998983</v>
       </c>
       <c r="C4">
-        <v>0.5367985777601905</v>
+        <v>0.2969866227606552</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.7469494247715489</v>
+        <v>0.7836738657463727</v>
       </c>
       <c r="F4">
-        <v>0.2460432966381658</v>
+        <v>0.886152085777655</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8028180260572804</v>
+        <v>0.9583086513169434</v>
       </c>
       <c r="C5">
-        <v>0.8730822942318572</v>
+        <v>0.5087260950646546</v>
       </c>
       <c r="D5">
-        <v>0.7469494247715489</v>
+        <v>0.7836738657463727</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5816608298349348</v>
+        <v>0.6690901480273759</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7007573122654946</v>
+        <v>0.672723236197815</v>
       </c>
       <c r="C6">
-        <v>0.5843581732626353</v>
+        <v>0.2379209483981182</v>
       </c>
       <c r="D6">
-        <v>0.2460432966381658</v>
+        <v>0.886152085777655</v>
       </c>
       <c r="E6">
-        <v>0.5816608298349348</v>
+        <v>0.6690901480273759</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1472573930422132</v>
+        <v>1.381913143719135</v>
       </c>
       <c r="D2">
-        <v>0.5853053630912167</v>
+        <v>-0.4053918936642927</v>
       </c>
       <c r="E2">
-        <v>0.2544886735436777</v>
+        <v>-0.05287505913689239</v>
       </c>
       <c r="F2">
-        <v>-0.3922815972340207</v>
+        <v>-0.4281236288676424</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.1472573930422132</v>
+        <v>-1.381913143719135</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6332182017306933</v>
+        <v>-1.068257325870674</v>
       </c>
       <c r="E3">
-        <v>0.1626966659055614</v>
+        <v>-0.671766128260332</v>
       </c>
       <c r="F3">
-        <v>-0.5599564743851075</v>
+        <v>-1.213195210281941</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.5853053630912167</v>
+        <v>0.4053918936642927</v>
       </c>
       <c r="C4">
-        <v>-0.6332182017306933</v>
+        <v>1.068257325870674</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.3291030129428938</v>
+        <v>0.2779134719156963</v>
       </c>
       <c r="F4">
-        <v>-1.210727756284462</v>
+        <v>-0.1448449399730452</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.2544886735436777</v>
+        <v>0.05287505913689239</v>
       </c>
       <c r="C5">
-        <v>-0.1626966659055614</v>
+        <v>0.671766128260332</v>
       </c>
       <c r="D5">
-        <v>0.3291030129428938</v>
+        <v>-0.2779134719156963</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.5640247427440195</v>
+        <v>-0.4331958443121155</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3922815972340207</v>
+        <v>0.4281236288676424</v>
       </c>
       <c r="C6">
-        <v>0.5599564743851075</v>
+        <v>1.213195210281941</v>
       </c>
       <c r="D6">
-        <v>1.210727756284462</v>
+        <v>0.1448449399730452</v>
       </c>
       <c r="E6">
-        <v>0.5640247427440195</v>
+        <v>0.4331958443121155</v>
       </c>
       <c r="F6">
         <v>0</v>
